--- a/Dash/grafico_lives_estilos_mais_escutados_data1.xlsx
+++ b/Dash/grafico_lives_estilos_mais_escutados_data1.xlsx
@@ -70,6 +70,12 @@
     <t xml:space="preserve">Pagode</t>
   </si>
   <si>
+    <t xml:space="preserve">Péricles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorriso Maroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thiaguinho</t>
   </si>
   <si>
@@ -82,9 +88,6 @@
     <t xml:space="preserve">Ludmilla</t>
   </si>
   <si>
-    <t xml:space="preserve">Péricles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grupo Revelação</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Suel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiee</t>
   </si>
   <si>
     <t xml:space="preserve">Os Barões da Pisadinha</t>
@@ -203,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,6 +237,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -284,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,6 +315,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,11 +338,11 @@
   </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A1:C51 E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.8"/>
@@ -644,26 +654,26 @@
       <c r="O12" s="0"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>10000000</v>
+      <c r="C13" s="6" t="n">
+        <v>11000000</v>
       </c>
       <c r="O13" s="0"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>6700000</v>
+      <c r="C14" s="6" t="n">
+        <v>10000000</v>
       </c>
       <c r="O14" s="0"/>
     </row>
@@ -675,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="O15" s="0"/>
     </row>
@@ -687,7 +697,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>4300000</v>
+        <v>6700000</v>
       </c>
       <c r="O16" s="0"/>
     </row>
@@ -699,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3100000</v>
+        <v>4500000</v>
       </c>
       <c r="O17" s="0"/>
     </row>
@@ -711,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2300000</v>
+        <v>4300000</v>
       </c>
       <c r="O18" s="0"/>
     </row>
@@ -723,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>2000000</v>
+        <v>2300000</v>
       </c>
       <c r="O19" s="0"/>
     </row>
@@ -735,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="O20" s="0"/>
     </row>
